--- a/data/excel/especif_words.xlsx
+++ b/data/excel/especif_words.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,384 +445,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14040</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>static</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>stá-tik</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>estático</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14041</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>dynamic</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>dái-ná-mik</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> dinámico</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14042</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>async</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>é- sínk</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>asíncrono</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14043</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>synchronous</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>sín-kro-nas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>síncrono</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14044</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>global</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>glóu-bul</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>global</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14045</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>lóu-kal</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14046</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>mutable</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>mjú-te-bul</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>mutable</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14047</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>immutable</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>im-mjú-te-bul</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>inmutable</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14048</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>klín</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>límpio</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14049</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>reusable</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>ri-ús-e-bul</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>reutilizable</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14050</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>readable</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>rí-da-bul</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>legible</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14051</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>scalable</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>skéi-la-bul</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>escalable</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14052</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>portable</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>pór-te-bul</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>portátil</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14053</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>modular</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>mó-yi-u-lar</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>modular</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14054</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>secure</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>si-kiúr</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>seguro</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14055</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>fast</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>fáest</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>rápido</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14056</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>lightweight</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>láit-wéit</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>liviano</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14057</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>custom</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kás-tom</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>personalizado</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14058</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>dí-fólt</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>por defecto</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14059</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>stríkt</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>estricto</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -835,7 +900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,384 +911,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bíld</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>construir</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14001</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>run</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ran</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>correr</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14002</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> tést</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>probar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14003</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>deploy</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>dí-ploy</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>desplegar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14004</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>commit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>kó-mit</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>confirmar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14005</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>push</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>púsh</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>pulsar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14006</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>púl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>extraer</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14007</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>debug</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>dí-bág</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>depurar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14008</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>kóud</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>codificar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14009</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>compile</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>kóm-pail</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>compilar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14010</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>execute</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>ég-zé-kiut</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ejecutar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14011</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>refactor</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ri-fá-ktor</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>refactorizar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14012</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>ím-pórt</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>importar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14013</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>export</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>ék-spórt</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>exportar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14014</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>render</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>rénder</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>representar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14015</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>crash</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>krásh</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>fallar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14016</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>áp-deit</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>actualizar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14017</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>install</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>ín-stól</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>instalar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14018</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>uninstall</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>án-ín-stól</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>desinstalar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14019</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>clone</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>klóun</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>clonar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1236,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,384 +1377,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14140</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>html</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>éich-ti-em-el</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>html</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14141</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>css</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>sí-es-es</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>css</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14142</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>js</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>jéi-es</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>javascript</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14143</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>dom</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>dí-ó-em</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>dom</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14144</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>api</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>éi-pí-ai</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>api</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14145</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>déi-so-en</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> json</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14146</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>ajax</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>éiyáks</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>ajax</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14147</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>fetch</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>féch</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>obtener</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14148</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>request</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>ri-kue-st</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>solicitud</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14149</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>response</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>ri-spóns</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>respuesta</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14150</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>header</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>jéder</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>cabecera</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14151</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>bó-di</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>cuerpo</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14152</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>form</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>fórm</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>formulario</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14153</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>ín-put</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>entrada</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14154</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>button</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>bát-ton</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>botón</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14155</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>submit</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>sab-mít</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>enviar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14156</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>li-nk</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>enlace</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14157</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>route</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>rout</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>ruta</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14158</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>template</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>té-mpléit</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>plantilla</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14159</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>component</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>kómpo-nent</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>componente</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1637,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,384 +1843,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14160</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>bug</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bág</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14161</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ér-ror</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14162</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>crash</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>krásh</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>falla</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14163</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>fíks</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>arreglar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14164</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>trace</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>tréjs</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>rastro</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14165</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>warning</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>wór-ning</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>advertencia</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14166</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>féil</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>falla</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14167</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>í-shu</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>problema</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14168</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>tést</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>probar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14169</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>log</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>lóg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>registro</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14170</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>throw</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>thró</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>lanzar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14171</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>catch</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ká-ch</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>capturar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14172</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>breakpoint</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>brék-póint</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>punto de interrupción</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14173</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>sták</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>pila</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14174</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>debugger</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>dí-bág-er</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>depurador</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14175</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ri-pórt</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>reporte</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14176</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>recover</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ri-có-ver</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>recuperar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14177</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>retry</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>ri-trái</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>reintentar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14178</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>timeout</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>táim-áut</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>tiempo de espera</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14179</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>ri-dyect</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>rechazar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2038,7 +2298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,384 +2309,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14080</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>push</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>púsh</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>pulsar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14081</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>pop</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>póp</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>sacar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14082</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>shift</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>shíft</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>mover</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14083</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>unshift</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>án-shíft</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>incluir</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14084</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>ordenar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14085</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>filter</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>fíl-ter</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>filtrar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14086</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>reduce</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>ri-djú-s</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve"> reducir</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14087</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>fáind</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>encontrar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14088</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>includes</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>ín-klúd</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>contener</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14089</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>slice</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>sláis</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>cortar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14090</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>splice</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>spáisl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>cortar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14091</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>concat</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>kón-kat</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>concatenar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14092</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>join</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>yoín</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>juntar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14093</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>sort</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>sórt</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>ordenar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14094</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>indexOf</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>áin-dex-óf</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>índice de</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14095</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>toString</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>tú-stríng</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>a cadena</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14096</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>parse</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>párs</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>parsear</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14097</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>stringify</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>stríngui-fai</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>convertir a cadena</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14098</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>bind</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>báind</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>vincular</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14099</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>call</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>kól</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>llamar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2439,7 +2764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2450,384 +2775,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14100</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ób-dyect</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> objeto</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>objeto</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14101</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>klás</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>clase</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14102</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>prototype</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>próu-to-táip</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>prototipo</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14103</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>constructor</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>kon-strúk-tor</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>constructor</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14104</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>instance</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ín-stan-s</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>instancia</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14105</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>mé-thod</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>método</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14106</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>property</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>pró-pé-rti</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>propiedad</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14107</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>inheritance</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>in-hé-ri-tans</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>herencia</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14108</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>super</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>sú-per</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>sobrecargar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14109</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>ðis</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>este</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14110</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>njú</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> nuevo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14111</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>extends</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>iks-téndz</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>extiende</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14112</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>static</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>stá-tik</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>estático</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14113</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>pú-blic</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>público</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14114</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>private</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>práiv-et</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>privado</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14115</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>protected</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>pro-tékt-ed</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>protegido</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14116</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ín-té-rfeis</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>interfaz</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14117</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>mó-diul</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>módulo</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14118</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>package</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>pák-ij</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>paquete</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14119</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>namespace</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>néim-speis</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>espacio de nombres</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2840,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,384 +3241,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14060</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>íf</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>si</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14061</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>else</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>éls</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>otro</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14062</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>switch</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>swí-ch</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>cambiar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14063</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>case</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>keis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>caso</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14064</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>while</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>juáíl</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>mientras</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14065</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>fór</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>para</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14066</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>break</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>bréik</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>romper</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14067</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>kón-tin-iu</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>continuar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14068</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>ri-térn</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>devolver</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14069</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>try</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>trái</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>intentar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14070</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>catch</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>ká-ch</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>capturar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14071</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>finally</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>fáin-al-li</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>finalmente</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14072</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>throw</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>thró</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>lanzar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14073</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>async</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>é-sínk</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>asíncrono</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14074</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>await</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>á-weít</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>esperar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14075</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>yíld</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>devolver</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14076</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ím-pórt</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>importar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14077</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>export</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>ék-spórt</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>exportar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14078</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>let</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>let</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>dejar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14079</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>const</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>kónst</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>constante</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3241,7 +3696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3252,384 +3707,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14180</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>agile</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>áy-díl</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ágil</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14181</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>scrum</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>skrám</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>scrum</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14182</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>sprint</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>sprínt</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>sprint</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14183</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>backlog</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>bák-lóg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>backlog</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14184</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ri-víu</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>revisión</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14185</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>planning</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>plá-ning</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>planificación</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14186</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>refactor</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>ri-fá-ktor</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>refactorizar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14187</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>scalable</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>skéi-la-bul</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>escalable</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14188</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>responsive</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>ri-spón-siv</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>responsivo</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14189</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>modular</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>mó-di-ular</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>modular</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14190</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>versioned</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>vér-shon-d</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>versionado</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14191</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>documented</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>dó-kiú-men-ted</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>documentado</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14192</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>maintainable</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>meín-tei-ná-bul</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>mantenible</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14193</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>performance</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>per-fór-mans</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>desempeño</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14194</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>deadline</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>déd-láin</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>fecha límite</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14195</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>feedback</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fídbák</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>fídbák</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>retroalimentación</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14196</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>release</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ri-lís</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>relevo</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14197</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>deploy</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>dí-ploy</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>desplegar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14198</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>teamwork</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>tím-wérk</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>trabajo en equipo</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14199</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>mentor</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>mén-tor</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>mentor</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3642,7 +4162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,384 +4173,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14020</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>fánk-shon</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>función</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14021</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>vá-ri-á-bul</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14022</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ar-réi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>arreglo</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14023</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>stri-ng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>cadena</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14024</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ób-dyect</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve"> objeto</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14025</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>nám-ber</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>número</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14026</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>bú-li-an</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>booleano</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14027</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>loop</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>lúp</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>bucle</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14028</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>condition</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>kon-dí-shon</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>condición</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14029</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>pá-ramé-ter</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>parámetro</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14030</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>ár-gyu-ment</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>argumento</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14031</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ri-térn</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>devolver</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14032</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>klás</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>clase</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14033</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>mé-thod</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>método</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14034</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>scope</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>skóup</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>alcance</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14035</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>event</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ivént</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>evento</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14036</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>callback</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>kól-bák</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>función de retorno</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14037</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>constant</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kón-stant</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>constante</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14038</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>táip</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14039</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>operator</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>ó-peré- tor</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>operador</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4043,7 +4628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4054,384 +4639,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>14120</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>git</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>git</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>git</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14121</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>commit</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>kó-mit</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>confirmar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>14122</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>push</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>púsh</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>pulsar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14123</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>púl</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>extraer</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>14124</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>branch</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>brán-ch</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>rama</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>14125</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>merge</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>mérdch</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>unir</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>14126</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>rebase</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>ri-béis</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>rebase</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>14127</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>clone</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>klóun</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>clonar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>14128</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>init</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>ín-it</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>inicializar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14129</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>stá-tus</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>estado</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>14130</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>log</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>lóg</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>registro</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14131</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>diff</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>díf</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>diferencia</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>14132</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>checkout</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>chék-áut</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>cambiar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14133</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>fetch</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>féch</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>obtener</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>14134</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>origin</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>ó-rí-din</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>origen</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>14135</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>remote</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ri-móut</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>remoto</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>14136</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>conflict</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>kón-flíkt</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>conflicto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>14137</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>tag</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>tág</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>etiquetar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>14138</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>stash</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>stásh</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>guardar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>14139</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>revert</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>ri-vért</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>revertir</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/especif_words.xlsx
+++ b/data/excel/especif_words.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADJETIVOS TÉCNICOS (Adjetivos)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DESARROLLO WEB (Desarrollo web)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERRORES Y DEPURACIÓN (Errores y" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MÉTODOS COMUNES JS (Métodos)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OBJETOS Y CLASES (Objetos y cla" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PALABRAS DE ESTRUCTURA (Palabra" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOFT Y HARD SKILLS (Habilidades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUSTANTIVOS CLAVE (Sustantivos)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TERMINAL Y GIT (Terminal y Git)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBOS COMUNES EN DESARROLLO (V" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VERBOS COMUNES EN DESARROLLO (V" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUSTANTIVOS CLAVE (Sustantivos)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADJETIVOS TÉCNICOS (Adjetivos)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PALABRAS DE ESTRUCTURA (Palabra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MÉTODOS COMUNES JS (Métodos)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OBJETOS Y CLASES (Objetos y cla" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TERMINAL Y GIT (Terminal y Git)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DESARROLLO WEB (Desarrollo web)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERRORES Y DEPURACIÓN (Errores y" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOFT Y HARD SKILLS (Habilidades" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,420 +471,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14040</v>
+        <v>14000</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>static</t>
+          <t>build</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>stá-tik</t>
+          <t>bíld</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>estático</t>
+          <t>construir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14041</v>
+        <v>14001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dynamic</t>
+          <t>run</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dái-ná-mik</t>
+          <t>ran</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dinámico</t>
+          <t>correr</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14042</v>
+        <v>14002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>async</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>é- sínk</t>
+          <t xml:space="preserve"> tést</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>asíncrono</t>
+          <t>probar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14043</v>
+        <v>14003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>synchronous</t>
+          <t>deploy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sín-kro-nas</t>
+          <t>dí-ploy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>síncrono</t>
+          <t>desplegar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14044</v>
+        <v>14004</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>commit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>glóu-bul</t>
+          <t>kó-mit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>confirmar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14045</v>
+        <v>14005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>push</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lóu-kal</t>
+          <t>púsh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14046</v>
+        <v>14006</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mutable</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mjú-te-bul</t>
+          <t>púl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>mutable</t>
+          <t>extraer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14047</v>
+        <v>14007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>immutable</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>im-mjú-te-bul</t>
+          <t>dí-bág</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>inmutable</t>
+          <t>depurar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14048</v>
+        <v>14008</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>clean</t>
+          <t>code</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>klín</t>
+          <t>kóud</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>límpio</t>
+          <t>codificar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14049</v>
+        <v>14009</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>reusable</t>
+          <t>compile</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ri-ús-e-bul</t>
+          <t>kóm-pail</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>reutilizable</t>
+          <t>compilar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14050</v>
+        <v>14010</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>readable</t>
+          <t>execute</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rí-da-bul</t>
+          <t>ég-zé-kiut</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>legible</t>
+          <t>ejecutar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14051</v>
+        <v>14011</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>scalable</t>
+          <t>refactor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>skéi-la-bul</t>
+          <t>ri-fá-ktor</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>escalable</t>
+          <t>refactorizar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14052</v>
+        <v>14012</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>portable</t>
+          <t>import</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pór-te-bul</t>
+          <t>ím-pórt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>portátil</t>
+          <t>importar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14053</v>
+        <v>14013</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>modular</t>
+          <t>export</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mó-yi-u-lar</t>
+          <t>ék-spórt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>modular</t>
+          <t>exportar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14054</v>
+        <v>14014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>secure</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>si-kiúr</t>
+          <t>rénder</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>seguro</t>
+          <t>representar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14055</v>
+        <v>14015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fast</t>
+          <t>crash</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fáest</t>
+          <t>krásh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rápido</t>
+          <t>fallar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14056</v>
+        <v>14016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lightweight</t>
+          <t>update</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>láit-wéit</t>
+          <t>áp-deit</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>liviano</t>
+          <t>actualizar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14057</v>
+        <v>14017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>custom</t>
+          <t>install</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kás-tom</t>
+          <t>ín-stól</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>personalizado</t>
+          <t>instalar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14058</v>
+        <v>14018</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>uninstall</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>dí-fólt</t>
+          <t>án-ín-stól</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>por defecto</t>
+          <t>desinstalar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14059</v>
+        <v>14019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>strict</t>
+          <t>clone</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>stríkt</t>
+          <t>klóun</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>estricto</t>
+          <t>clonar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -937,420 +937,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14000</v>
+        <v>14180</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>agile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bíld</t>
+          <t>áy-díl</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>construir</t>
+          <t>ágil</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14001</v>
+        <v>14181</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>run</t>
+          <t>scrum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ran</t>
+          <t>skrám</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>correr</t>
+          <t>scrum</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14002</v>
+        <v>14182</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>sprint</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tést</t>
+          <t>sprínt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>probar</t>
+          <t>sprint</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14003</v>
+        <v>14183</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>deploy</t>
+          <t>backlog</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dí-ploy</t>
+          <t>bák-lóg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>desplegar</t>
+          <t>backlog</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14004</v>
+        <v>14184</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>commit</t>
+          <t>review</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kó-mit</t>
+          <t>ri-víu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>confirmar</t>
+          <t>revisión</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14005</v>
+        <v>14185</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>púsh</t>
+          <t>plá-ning</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>planificación</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14006</v>
+        <v>14186</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>refactor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>púl</t>
+          <t>ri-fá-ktor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>extraer</t>
+          <t>refactorizar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14007</v>
+        <v>14187</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>scalable</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dí-bág</t>
+          <t>skéi-la-bul</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>depurar</t>
+          <t>escalable</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14008</v>
+        <v>14188</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>responsive</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kóud</t>
+          <t>ri-spón-siv</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>codificar</t>
+          <t>responsivo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14009</v>
+        <v>14189</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>compile</t>
+          <t>modular</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>kóm-pail</t>
+          <t>mó-di-ular</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>compilar</t>
+          <t>modular</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14010</v>
+        <v>14190</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>execute</t>
+          <t>versioned</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ég-zé-kiut</t>
+          <t>vér-shon-d</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ejecutar</t>
+          <t>versionado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14011</v>
+        <v>14191</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>refactor</t>
+          <t>documented</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ri-fá-ktor</t>
+          <t>dó-kiú-men-ted</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>refactorizar</t>
+          <t>documentado</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14012</v>
+        <v>14192</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>import</t>
+          <t>maintainable</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ím-pórt</t>
+          <t>meín-tei-ná-bul</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>importar</t>
+          <t>mantenible</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14013</v>
+        <v>14193</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>export</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ék-spórt</t>
+          <t>per-fór-mans</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>exportar</t>
+          <t>desempeño</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14014</v>
+        <v>14194</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>deadline</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rénder</t>
+          <t>déd-láin</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>representar</t>
+          <t>fecha límite</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14015</v>
+        <v>14195</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>crash</t>
+          <t>feedback</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>krásh</t>
+          <t>fídbák</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fallar</t>
+          <t>retroalimentación</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14016</v>
+        <v>14196</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>update</t>
+          <t>release</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>áp-deit</t>
+          <t>ri-lís</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>actualizar</t>
+          <t>relevo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14017</v>
+        <v>14197</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>install</t>
+          <t>deploy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ín-stól</t>
+          <t>dí-ploy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>instalar</t>
+          <t>desplegar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14018</v>
+        <v>14198</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uninstall</t>
+          <t>teamwork</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>án-ín-stól</t>
+          <t>tím-wérk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>desinstalar</t>
+          <t>trabajo en equipo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14019</v>
+        <v>14199</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>clone</t>
+          <t>mentor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>klóun</t>
+          <t>mén-tor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>clonar</t>
+          <t>mentor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1403,420 +1403,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14140</v>
+        <v>14020</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>html</t>
+          <t>function</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>éich-ti-em-el</t>
+          <t>fánk-shon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>html</t>
+          <t>función</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14141</v>
+        <v>14021</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>css</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sí-es-es</t>
+          <t>vá-ri-á-bul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>css</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14142</v>
+        <v>14022</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>js</t>
+          <t>array</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jéi-es</t>
+          <t>ar-réi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>javascript</t>
+          <t>arreglo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14143</v>
+        <v>14023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dí-ó-em</t>
+          <t>stri-ng</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>cadena</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14144</v>
+        <v>14024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>api</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>éi-pí-ai</t>
+          <t>ób-dyect</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>api</t>
+          <t xml:space="preserve"> objeto</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14145</v>
+        <v>14025</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>number</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>déi-so-en</t>
+          <t>nám-ber</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>número</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14146</v>
+        <v>14026</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ajax</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>éiyáks</t>
+          <t>bú-li-an</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ajax</t>
+          <t>booleano</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14147</v>
+        <v>14027</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>loop</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>féch</t>
+          <t>lúp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>obtener</t>
+          <t>bucle</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14148</v>
+        <v>14028</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>request</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ri-kue-st</t>
+          <t>kon-dí-shon</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>solicitud</t>
+          <t>condición</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14149</v>
+        <v>14029</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>parameter</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ri-spóns</t>
+          <t>pá-ramé-ter</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>respuesta</t>
+          <t>parámetro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14150</v>
+        <v>14030</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>header</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jéder</t>
+          <t>ár-gyu-ment</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cabecera</t>
+          <t>argumento</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14151</v>
+        <v>14031</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>return</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>bó-di</t>
+          <t>ri-térn</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cuerpo</t>
+          <t>devolver</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14152</v>
+        <v>14032</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>class</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fórm</t>
+          <t>klás</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>formulario</t>
+          <t>clase</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14153</v>
+        <v>14033</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>method</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ín-put</t>
+          <t>mé-thod</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>entrada</t>
+          <t>método</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14154</v>
+        <v>14034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>button</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>bát-ton</t>
+          <t>skóup</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>botón</t>
+          <t>alcance</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14155</v>
+        <v>14035</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>submit</t>
+          <t>event</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sab-mít</t>
+          <t>ivént</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>enviar</t>
+          <t>evento</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14156</v>
+        <v>14036</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>callback</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>li-nk</t>
+          <t>kól-bák</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>enlace</t>
+          <t>función de retorno</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14157</v>
+        <v>14037</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>route</t>
+          <t>constant</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>rout</t>
+          <t>kón-stant</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ruta</t>
+          <t>constante</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14158</v>
+        <v>14038</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>té-mpléit</t>
+          <t>táip</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>plantilla</t>
+          <t>tipo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14159</v>
+        <v>14039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>component</t>
+          <t>operator</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kómpo-nent</t>
+          <t>ó-peré- tor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>componente</t>
+          <t>operador</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1869,420 +1869,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14160</v>
+        <v>14040</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bug</t>
+          <t>static</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bág</t>
+          <t>stá-tik</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>estático</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14161</v>
+        <v>14041</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>dynamic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ér-ror</t>
+          <t>dái-ná-mik</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>error</t>
+          <t xml:space="preserve"> dinámico</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14162</v>
+        <v>14042</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>crash</t>
+          <t>async</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>krásh</t>
+          <t>é- sínk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>falla</t>
+          <t>asíncrono</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14163</v>
+        <v>14043</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fix</t>
+          <t>synchronous</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>fíks</t>
+          <t>sín-kro-nas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>arreglar</t>
+          <t>síncrono</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14164</v>
+        <v>14044</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trace</t>
+          <t>global</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tréjs</t>
+          <t>glóu-bul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rastro</t>
+          <t>global</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14165</v>
+        <v>14045</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wór-ning</t>
+          <t>lóu-kal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>advertencia</t>
+          <t>local</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14166</v>
+        <v>14046</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>mutable</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>féil</t>
+          <t>mjú-te-bul</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>falla</t>
+          <t>mutable</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14167</v>
+        <v>14047</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>immutable</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>í-shu</t>
+          <t>im-mjú-te-bul</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>problema</t>
+          <t>inmutable</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14168</v>
+        <v>14048</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>clean</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tést</t>
+          <t>klín</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>probar</t>
+          <t>límpio</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14169</v>
+        <v>14049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>reusable</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lóg</t>
+          <t>ri-ús-e-bul</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>registro</t>
+          <t>reutilizable</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14170</v>
+        <v>14050</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>throw</t>
+          <t>readable</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>thró</t>
+          <t>rí-da-bul</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>lanzar</t>
+          <t>legible</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14171</v>
+        <v>14051</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>scalable</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ká-ch</t>
+          <t>skéi-la-bul</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>capturar</t>
+          <t>escalable</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14172</v>
+        <v>14052</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>breakpoint</t>
+          <t>portable</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brék-póint</t>
+          <t>pór-te-bul</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>punto de interrupción</t>
+          <t>portátil</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14173</v>
+        <v>14053</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stack</t>
+          <t>modular</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sták</t>
+          <t>mó-yi-u-lar</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pila</t>
+          <t>modular</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14174</v>
+        <v>14054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>debugger</t>
+          <t>secure</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>dí-bág-er</t>
+          <t>si-kiúr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>depurador</t>
+          <t>seguro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14175</v>
+        <v>14055</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>fast</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ri-pórt</t>
+          <t>fáest</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>reporte</t>
+          <t>rápido</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14176</v>
+        <v>14056</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>recover</t>
+          <t>lightweight</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ri-có-ver</t>
+          <t>láit-wéit</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>recuperar</t>
+          <t>liviano</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14177</v>
+        <v>14057</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>retry</t>
+          <t>custom</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ri-trái</t>
+          <t>kás-tom</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>reintentar</t>
+          <t>personalizado</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14178</v>
+        <v>14058</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>default</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>táim-áut</t>
+          <t>dí-fólt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>tiempo de espera</t>
+          <t>por defecto</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14179</v>
+        <v>14059</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>strict</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ri-dyect</t>
+          <t>stríkt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rechazar</t>
+          <t>estricto</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2335,420 +2335,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14080</v>
+        <v>14060</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>if</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>púsh</t>
+          <t>íf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14081</v>
+        <v>14061</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>else</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>póp</t>
+          <t>éls</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sacar</t>
+          <t>otro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14082</v>
+        <v>14062</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>shift</t>
+          <t>switch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>shíft</t>
+          <t>swí-ch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mover</t>
+          <t>cambiar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14083</v>
+        <v>14063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>unshift</t>
+          <t>case</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>án-shíft</t>
+          <t>keis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>incluir</t>
+          <t>caso</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14084</v>
+        <v>14064</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>while</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>juáíl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ordenar</t>
+          <t>mientras</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14085</v>
+        <v>14065</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>filter</t>
+          <t>for</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fíl-ter</t>
+          <t>fór</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>filtrar</t>
+          <t>para</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14086</v>
+        <v>14066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>reduce</t>
+          <t>break</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ri-djú-s</t>
+          <t>bréik</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> reducir</t>
+          <t>romper</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14087</v>
+        <v>14067</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fáind</t>
+          <t>kón-tin-iu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>encontrar</t>
+          <t>continuar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14088</v>
+        <v>14068</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>includes</t>
+          <t>return</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ín-klúd</t>
+          <t>ri-térn</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>contener</t>
+          <t>devolver</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14089</v>
+        <v>14069</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>slice</t>
+          <t>try</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sláis</t>
+          <t>trái</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cortar</t>
+          <t>intentar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14090</v>
+        <v>14070</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>splice</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>spáisl</t>
+          <t>ká-ch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cortar</t>
+          <t>capturar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14091</v>
+        <v>14071</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>concat</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>kón-kat</t>
+          <t>fáin-al-li</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>concatenar</t>
+          <t>finalmente</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14092</v>
+        <v>14072</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>join</t>
+          <t>throw</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>yoín</t>
+          <t>thró</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>juntar</t>
+          <t>lanzar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14093</v>
+        <v>14073</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sort</t>
+          <t>async</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sórt</t>
+          <t>é-sínk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ordenar</t>
+          <t>asíncrono</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14094</v>
+        <v>14074</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>indexOf</t>
+          <t>await</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>áin-dex-óf</t>
+          <t>á-weít</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>índice de</t>
+          <t>esperar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14095</v>
+        <v>14075</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>toString</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>tú-stríng</t>
+          <t>yíld</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>a cadena</t>
+          <t>devolver</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14096</v>
+        <v>14076</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>parse</t>
+          <t>import</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>párs</t>
+          <t>ím-pórt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>parsear</t>
+          <t>importar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14097</v>
+        <v>14077</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stringify</t>
+          <t>export</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>stríngui-fai</t>
+          <t>ék-spórt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>convertir a cadena</t>
+          <t>exportar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14098</v>
+        <v>14078</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bind</t>
+          <t>let</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>báind</t>
+          <t>let</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vincular</t>
+          <t>dejar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14099</v>
+        <v>14079</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>const</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kól</t>
+          <t>kónst</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>llamar</t>
+          <t>constante</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2801,420 +2801,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14100</v>
+        <v>14080</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>push</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ób-dyect</t>
+          <t>púsh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>objeto</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14101</v>
+        <v>14081</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>pop</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>klás</t>
+          <t>póp</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>clase</t>
+          <t>sacar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14102</v>
+        <v>14082</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>shift</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>próu-to-táip</t>
+          <t>shíft</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>prototipo</t>
+          <t>mover</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14103</v>
+        <v>14083</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>constructor</t>
+          <t>unshift</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kon-strúk-tor</t>
+          <t>án-shíft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>constructor</t>
+          <t>incluir</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14104</v>
+        <v>14084</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>instance</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ín-stan-s</t>
+          <t>map</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>instancia</t>
+          <t>ordenar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14105</v>
+        <v>14085</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>filter</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mé-thod</t>
+          <t>fíl-ter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>método</t>
+          <t>filtrar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14106</v>
+        <v>14086</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pró-pé-rti</t>
+          <t>ri-djú-s</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>propiedad</t>
+          <t xml:space="preserve"> reducir</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14107</v>
+        <v>14087</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>inheritance</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>in-hé-ri-tans</t>
+          <t>fáind</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>herencia</t>
+          <t>encontrar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14108</v>
+        <v>14088</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>super</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sú-per</t>
+          <t>ín-klúd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sobrecargar</t>
+          <t>contener</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14109</v>
+        <v>14089</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>slice</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ðis</t>
+          <t>sláis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>este</t>
+          <t>cortar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14110</v>
+        <v>14090</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>splice</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>njú</t>
+          <t>spáisl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cortar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14111</v>
+        <v>14091</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>extends</t>
+          <t>concat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>iks-téndz</t>
+          <t>kón-kat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>extiende</t>
+          <t>concatenar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14112</v>
+        <v>14092</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>static</t>
+          <t>join</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>stá-tik</t>
+          <t>yoín</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>estático</t>
+          <t>juntar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14113</v>
+        <v>14093</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>sort</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pú-blic</t>
+          <t>sórt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>público</t>
+          <t>ordenar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14114</v>
+        <v>14094</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>private</t>
+          <t>indexOf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>práiv-et</t>
+          <t>áin-dex-óf</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>privado</t>
+          <t>índice de</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14115</v>
+        <v>14095</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>protected</t>
+          <t>toString</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pro-tékt-ed</t>
+          <t>tú-stríng</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>protegido</t>
+          <t>a cadena</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14116</v>
+        <v>14096</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>interface</t>
+          <t>parse</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ín-té-rfeis</t>
+          <t>párs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>interfaz</t>
+          <t>parsear</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14117</v>
+        <v>14097</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>module</t>
+          <t>stringify</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mó-diul</t>
+          <t>stríngui-fai</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>módulo</t>
+          <t>convertir a cadena</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14118</v>
+        <v>14098</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>package</t>
+          <t>bind</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pák-ij</t>
+          <t>báind</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>paquete</t>
+          <t>vincular</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14119</v>
+        <v>14099</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>call</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>néim-speis</t>
+          <t>kól</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>espacio de nombres</t>
+          <t>llamar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3267,420 +3267,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14060</v>
+        <v>14100</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>íf</t>
+          <t>ób-dyect</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>objeto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14061</v>
+        <v>14101</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>else</t>
+          <t>class</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>éls</t>
+          <t>klás</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>otro</t>
+          <t>clase</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14062</v>
+        <v>14102</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>switch</t>
+          <t>prototype</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>swí-ch</t>
+          <t>próu-to-táip</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cambiar</t>
+          <t>prototipo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14063</v>
+        <v>14103</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>constructor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>keis</t>
+          <t>kon-strúk-tor</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>caso</t>
+          <t>constructor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14064</v>
+        <v>14104</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>instance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>juáíl</t>
+          <t>ín-stan-s</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>mientras</t>
+          <t>instancia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14065</v>
+        <v>14105</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>method</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fór</t>
+          <t>mé-thod</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>método</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14066</v>
+        <v>14106</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>break</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bréik</t>
+          <t>pró-pé-rti</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>romper</t>
+          <t>propiedad</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14067</v>
+        <v>14107</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>continue</t>
+          <t>inheritance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>kón-tin-iu</t>
+          <t>in-hé-ri-tans</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>continuar</t>
+          <t>herencia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14068</v>
+        <v>14108</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>super</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ri-térn</t>
+          <t>sú-per</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>devolver</t>
+          <t>sobrecargar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14069</v>
+        <v>14109</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>try</t>
+          <t>this</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>trái</t>
+          <t>ðis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>intentar</t>
+          <t>este</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14070</v>
+        <v>14110</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ká-ch</t>
+          <t>njú</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>capturar</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14071</v>
+        <v>14111</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>extends</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>fáin-al-li</t>
+          <t>iks-téndz</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>finalmente</t>
+          <t>extiende</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14072</v>
+        <v>14112</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>throw</t>
+          <t>static</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>thró</t>
+          <t>stá-tik</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>lanzar</t>
+          <t>estático</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14073</v>
+        <v>14113</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>async</t>
+          <t>public</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>é-sínk</t>
+          <t>pú-blic</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>asíncrono</t>
+          <t>público</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14074</v>
+        <v>14114</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>await</t>
+          <t>private</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>á-weít</t>
+          <t>práiv-et</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>esperar</t>
+          <t>privado</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14075</v>
+        <v>14115</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>protected</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>yíld</t>
+          <t>pro-tékt-ed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>devolver</t>
+          <t>protegido</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14076</v>
+        <v>14116</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>import</t>
+          <t>interface</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ím-pórt</t>
+          <t>ín-té-rfeis</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>importar</t>
+          <t>interfaz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14077</v>
+        <v>14117</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>export</t>
+          <t>module</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ék-spórt</t>
+          <t>mó-diul</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>exportar</t>
+          <t>módulo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14078</v>
+        <v>14118</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>package</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>pák-ij</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>dejar</t>
+          <t>paquete</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14079</v>
+        <v>14119</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kónst</t>
+          <t>néim-speis</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>constante</t>
+          <t>espacio de nombres</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3733,420 +3733,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14180</v>
+        <v>14120</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>agile</t>
+          <t>git</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>áy-díl</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ágil</t>
+          <t>git</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14181</v>
+        <v>14121</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>scrum</t>
+          <t>commit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>skrám</t>
+          <t>kó-mit</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>scrum</t>
+          <t>confirmar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14182</v>
+        <v>14122</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sprint</t>
+          <t>push</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sprínt</t>
+          <t>púsh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sprint</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14183</v>
+        <v>14123</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>backlog</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bák-lóg</t>
+          <t>púl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>backlog</t>
+          <t>extraer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14184</v>
+        <v>14124</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>branch</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ri-víu</t>
+          <t>brán-ch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>revisión</t>
+          <t>rama</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14185</v>
+        <v>14125</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>merge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>plá-ning</t>
+          <t>mérdch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>planificación</t>
+          <t>unir</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14186</v>
+        <v>14126</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>refactor</t>
+          <t>rebase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ri-fá-ktor</t>
+          <t>ri-béis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>refactorizar</t>
+          <t>rebase</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14187</v>
+        <v>14127</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>scalable</t>
+          <t>clone</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>skéi-la-bul</t>
+          <t>klóun</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>escalable</t>
+          <t>clonar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14188</v>
+        <v>14128</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>responsive</t>
+          <t>init</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ri-spón-siv</t>
+          <t>ín-it</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>responsivo</t>
+          <t>inicializar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14189</v>
+        <v>14129</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>modular</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mó-di-ular</t>
+          <t>stá-tus</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>modular</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14190</v>
+        <v>14130</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>versioned</t>
+          <t>log</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>vér-shon-d</t>
+          <t>lóg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>versionado</t>
+          <t>registro</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14191</v>
+        <v>14131</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>documented</t>
+          <t>diff</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dó-kiú-men-ted</t>
+          <t>díf</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>documentado</t>
+          <t>diferencia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14192</v>
+        <v>14132</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>maintainable</t>
+          <t>checkout</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>meín-tei-ná-bul</t>
+          <t>chék-áut</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>mantenible</t>
+          <t>cambiar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14193</v>
+        <v>14133</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>per-fór-mans</t>
+          <t>féch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>desempeño</t>
+          <t>obtener</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14194</v>
+        <v>14134</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>deadline</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>déd-láin</t>
+          <t>ó-rí-din</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fecha límite</t>
+          <t>origen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14195</v>
+        <v>14135</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>feedback</t>
+          <t>remote</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fídbák</t>
+          <t>ri-móut</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>retroalimentación</t>
+          <t>remoto</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14196</v>
+        <v>14136</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>release</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ri-lís</t>
+          <t>kón-flíkt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>relevo</t>
+          <t>conflicto</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14197</v>
+        <v>14137</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>deploy</t>
+          <t>tag</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>dí-ploy</t>
+          <t>tág</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>desplegar</t>
+          <t>etiquetar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14198</v>
+        <v>14138</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>teamwork</t>
+          <t>stash</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tím-wérk</t>
+          <t>stásh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>trabajo en equipo</t>
+          <t>guardar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14199</v>
+        <v>14139</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mentor</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mén-tor</t>
+          <t>ri-vért</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mentor</t>
+          <t>revertir</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4199,420 +4199,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14020</v>
+        <v>14140</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fánk-shon</t>
+          <t>éich-ti-em-el</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>función</t>
+          <t>html</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14021</v>
+        <v>14141</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>css</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vá-ri-á-bul</t>
+          <t>sí-es-es</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>css</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14022</v>
+        <v>14142</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>array</t>
+          <t>js</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ar-réi</t>
+          <t>jéi-es</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>arreglo</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14023</v>
+        <v>14143</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>stri-ng</t>
+          <t>dí-ó-em</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cadena</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14024</v>
+        <v>14144</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>api</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ób-dyect</t>
+          <t>éi-pí-ai</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> objeto</t>
+          <t>api</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14025</v>
+        <v>14145</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nám-ber</t>
+          <t>déi-so-en</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>número</t>
+          <t>json</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14026</v>
+        <v>14146</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>ajax</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bú-li-an</t>
+          <t>éiyáks</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>booleano</t>
+          <t>ajax</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14027</v>
+        <v>14147</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>loop</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>lúp</t>
+          <t>féch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bucle</t>
+          <t>obtener</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14028</v>
+        <v>14148</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>request</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kon-dí-shon</t>
+          <t>ri-kue-st</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>condición</t>
+          <t>solicitud</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14029</v>
+        <v>14149</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>parameter</t>
+          <t>response</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pá-ramé-ter</t>
+          <t>ri-spóns</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>parámetro</t>
+          <t>respuesta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14030</v>
+        <v>14150</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>header</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ár-gyu-ment</t>
+          <t>jéder</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>argumento</t>
+          <t>cabecera</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14031</v>
+        <v>14151</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>body</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ri-térn</t>
+          <t>bó-di</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>devolver</t>
+          <t>cuerpo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14032</v>
+        <v>14152</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>form</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>klás</t>
+          <t>fórm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>clase</t>
+          <t>formulario</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14033</v>
+        <v>14153</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>input</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mé-thod</t>
+          <t>ín-put</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>método</t>
+          <t>entrada</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14034</v>
+        <v>14154</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>button</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>skóup</t>
+          <t>bát-ton</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>alcance</t>
+          <t>botón</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14035</v>
+        <v>14155</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>submit</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ivént</t>
+          <t>sab-mít</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>evento</t>
+          <t>enviar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14036</v>
+        <v>14156</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>callback</t>
+          <t>link</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>kól-bák</t>
+          <t>li-nk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>función de retorno</t>
+          <t>enlace</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14037</v>
+        <v>14157</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>constant</t>
+          <t>route</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kón-stant</t>
+          <t>rout</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>constante</t>
+          <t>ruta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14038</v>
+        <v>14158</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>template</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>táip</t>
+          <t>té-mpléit</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>tipo</t>
+          <t>plantilla</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14039</v>
+        <v>14159</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>operator</t>
+          <t>component</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ó-peré- tor</t>
+          <t>kómpo-nent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>operador</t>
+          <t>componente</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4665,420 +4665,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14120</v>
+        <v>14160</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>bug</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>bág</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14121</v>
+        <v>14161</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>commit</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kó-mit</t>
+          <t>ér-ror</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>confirmar</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14122</v>
+        <v>14162</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>crash</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>púsh</t>
+          <t>krásh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>falla</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14123</v>
+        <v>14163</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>fix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>púl</t>
+          <t>fíks</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>extraer</t>
+          <t>arreglar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14124</v>
+        <v>14164</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>branch</t>
+          <t>trace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>brán-ch</t>
+          <t>tréjs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rama</t>
+          <t>rastro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14125</v>
+        <v>14165</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merge</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mérdch</t>
+          <t>wór-ning</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>unir</t>
+          <t>advertencia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14126</v>
+        <v>14166</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rebase</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ri-béis</t>
+          <t>féil</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rebase</t>
+          <t>falla</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14127</v>
+        <v>14167</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>clone</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>klóun</t>
+          <t>í-shu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>clonar</t>
+          <t>problema</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14128</v>
+        <v>14168</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>init</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ín-it</t>
+          <t>tést</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>inicializar</t>
+          <t>probar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14129</v>
+        <v>14169</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>log</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>stá-tus</t>
+          <t>lóg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>registro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14130</v>
+        <v>14170</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>log</t>
+          <t>throw</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>lóg</t>
+          <t>thró</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>registro</t>
+          <t>lanzar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14131</v>
+        <v>14171</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>diff</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>díf</t>
+          <t>ká-ch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>diferencia</t>
+          <t>capturar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14132</v>
+        <v>14172</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>checkout</t>
+          <t>breakpoint</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chék-áut</t>
+          <t>brék-póint</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cambiar</t>
+          <t>punto de interrupción</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14133</v>
+        <v>14173</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>stack</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>féch</t>
+          <t>sták</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>obtener</t>
+          <t>pila</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14134</v>
+        <v>14174</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>debugger</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ó-rí-din</t>
+          <t>dí-bág-er</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>origen</t>
+          <t>depurador</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14135</v>
+        <v>14175</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>remote</t>
+          <t>report</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ri-móut</t>
+          <t>ri-pórt</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>remoto</t>
+          <t>reporte</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14136</v>
+        <v>14176</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>conflict</t>
+          <t>recover</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>kón-flíkt</t>
+          <t>ri-có-ver</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>conflicto</t>
+          <t>recuperar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14137</v>
+        <v>14177</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tag</t>
+          <t>retry</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tág</t>
+          <t>ri-trái</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>etiquetar</t>
+          <t>reintentar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14138</v>
+        <v>14178</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stash</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>stásh</t>
+          <t>táim-áut</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>guardar</t>
+          <t>tiempo de espera</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14139</v>
+        <v>14179</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>reject</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ri-vért</t>
+          <t>ri-dyect</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>revertir</t>
+          <t>rechazar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
